--- a/Sin.xlsx
+++ b/Sin.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Conferences\2018-Conferences\Castelldefels_August\SLIDES\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/es922014/Google Drive/Research/Applications/CREDS_proposal/Numbers_for_Policy_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{735B0AD1-232E-4936-B428-18A2CDDE44A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F26875C-7B66-894F-AD15-FEFF9FD92D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{7A3B56EE-4567-4F2E-8667-1947E6FA0C79}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7A3B56EE-4567-4F2E-8667-1947E6FA0C79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,7 +110,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -89,6 +122,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>y = x1/10 + sin(pi*x2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,6 +185,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -151,618 +220,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$100</c:f>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.76306923823149087</c:v>
+                  <c:v>0.22778045981715989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90393444232506159</c:v>
+                  <c:v>0.62315322943470408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7715133584861813</c:v>
+                  <c:v>0.88784399303929717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4278198157485994</c:v>
+                  <c:v>0.38490722413030709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72585190745499839</c:v>
+                  <c:v>0.23851756174769201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15065762111218628</c:v>
+                  <c:v>0.37850227575941164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85341666176503461</c:v>
+                  <c:v>2.5146822970929406E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1319891280292651</c:v>
+                  <c:v>0.83933384310682413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20820438286577758</c:v>
+                  <c:v>0.96892584587085795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16937929308395283</c:v>
+                  <c:v>0.5576397387615859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.4647295024736207E-2</c:v>
+                  <c:v>0.58531198925578187</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30794489419432647</c:v>
+                  <c:v>0.78156368654302211</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5205605532702885</c:v>
+                  <c:v>0.54412667165640327</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10677556696299073</c:v>
+                  <c:v>9.9402291815251176E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.56815253290906509</c:v>
+                  <c:v>0.36854718392916486</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20843097719182779</c:v>
+                  <c:v>0.90889541652167261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0599149036590991E-2</c:v>
+                  <c:v>0.17489768271145212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51554433788207044</c:v>
+                  <c:v>0.65655923875706967</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81013160549861662</c:v>
+                  <c:v>0.48522493494597241</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66107995668040342</c:v>
+                  <c:v>0.58815292026396104</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.82423306176244227</c:v>
+                  <c:v>0.69029138843260041</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.80614556724337905</c:v>
+                  <c:v>0.84737581088594671</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68674699458945132</c:v>
+                  <c:v>0.9932085649441883</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.60240850273939417</c:v>
+                  <c:v>0.42312021738722583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.6429002956424399E-2</c:v>
+                  <c:v>0.46123230112073266</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.72199870125191012</c:v>
+                  <c:v>0.13860816041687551</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.50839079743495241</c:v>
+                  <c:v>0.12443943351141318</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.40116055029555564</c:v>
+                  <c:v>0.68380410947494585</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.75348890412071867</c:v>
+                  <c:v>0.70549394045648273</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.7625080463219698E-2</c:v>
+                  <c:v>0.91079365974893878</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80313017458865554</c:v>
+                  <c:v>0.76662206542222544</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.90844169686832865</c:v>
+                  <c:v>0.66180553427197641</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.52846009419807072</c:v>
+                  <c:v>0.37161076219290379</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46780390522060544</c:v>
+                  <c:v>0.41823644718848163</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26778659234733149</c:v>
+                  <c:v>0.97619694808454405</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.30366792599898529</c:v>
+                  <c:v>0.77874916372231029</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.78847251126733509</c:v>
+                  <c:v>0.54825448235877439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.49412536457121059</c:v>
+                  <c:v>0.59802544915724321</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.89165873166804632</c:v>
+                  <c:v>0.31400562007223276</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.80354644279097098</c:v>
+                  <c:v>0.37832098787545376</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.75805871607330866</c:v>
+                  <c:v>0.9465189194646304</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.96061115975243383</c:v>
+                  <c:v>0.74609143349405882</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.58587720444474956</c:v>
+                  <c:v>0.47770043201084311</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.90238688244032605</c:v>
+                  <c:v>0.62392213727001933</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.67875277398095568</c:v>
+                  <c:v>0.53779940218212019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.39402931042611877</c:v>
+                  <c:v>0.64046927835370626</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.39366182220908763</c:v>
+                  <c:v>0.24507852761820059</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.34575755187387902</c:v>
+                  <c:v>0.57741224521713774</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.72557034137548015</c:v>
+                  <c:v>0.79509804352069935</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.10635107713957037</c:v>
+                  <c:v>0.41252874901795133</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.77936507294336266</c:v>
+                  <c:v>0.17830383952739315</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.46355180156307152</c:v>
+                  <c:v>0.49092819386283837</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.62329262730229829</c:v>
+                  <c:v>0.53241769613359702</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.66182477158760389</c:v>
+                  <c:v>0.33942534870774477</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.81028055244580377</c:v>
+                  <c:v>0.34214500007635928</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.25891893051457116</c:v>
+                  <c:v>0.25388889869025277</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.9910168272781239</c:v>
+                  <c:v>0.87168105870780621</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.5412332798180235E-2</c:v>
+                  <c:v>0.75542819751397394</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.66574455019377465</c:v>
+                  <c:v>0.20126235826698236</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.89070591575293634</c:v>
+                  <c:v>0.60880639359154476</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.34886647587415398</c:v>
+                  <c:v>0.12400918929757754</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.17836260325070197</c:v>
+                  <c:v>0.46221682062650227</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.64540993173280137</c:v>
+                  <c:v>0.40756510110745225</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.78173726473158622</c:v>
+                  <c:v>0.19579768284502719</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.51452125944451343</c:v>
+                  <c:v>0.29133852490759737</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.10664025560069446</c:v>
+                  <c:v>0.84493641526801988</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.9803166750750454E-2</c:v>
+                  <c:v>0.41765617477442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.39461587117984509</c:v>
+                  <c:v>0.16610773097875853</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.28158871274919584</c:v>
+                  <c:v>0.85866176899224067</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.38783182499864521</c:v>
+                  <c:v>0.63708111322933814</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.56428622562408559</c:v>
+                  <c:v>0.9882452750058156</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.3304238962942367E-2</c:v>
+                  <c:v>0.44661917479815583</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.132698558716562</c:v>
+                  <c:v>0.51328065482641638</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.4431603290143831E-2</c:v>
+                  <c:v>0.43180495281547027</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.30401541505332341</c:v>
+                  <c:v>2.2170806318188019E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.52859177236417632</c:v>
+                  <c:v>0.80989772925036319</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.52271612130536782</c:v>
+                  <c:v>0.5149387835493292</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.47311875037728568</c:v>
+                  <c:v>0.41391576482782055</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.82018258305573599</c:v>
+                  <c:v>0.77731168568379572</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.47820242527850176</c:v>
+                  <c:v>0.44651723907153928</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.61787639292256546</c:v>
+                  <c:v>0.32953276345063842</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.18423449236974099</c:v>
+                  <c:v>0.17512551970915069</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.51924752536773222</c:v>
+                  <c:v>0.38157788646993707</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.59895435877300385</c:v>
+                  <c:v>0.88357242028160066</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.7530236777080255E-4</c:v>
+                  <c:v>0.85628335431133495</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.58442625109247426</c:v>
+                  <c:v>0.38584032680630198</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.7904640972962698E-2</c:v>
+                  <c:v>0.25962026970138619</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.7203874218063149E-2</c:v>
+                  <c:v>0.65155888295335274</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.93682032752184874</c:v>
+                  <c:v>0.62719747357493949</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.21008474996723314</c:v>
+                  <c:v>0.52220771034079994</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.7645410209457506</c:v>
+                  <c:v>0.90908558136764361</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.87630587052853248</c:v>
+                  <c:v>0.43713805623330082</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.43001938922287641</c:v>
+                  <c:v>0.44117539564357044</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.230716857683392E-3</c:v>
+                  <c:v>0.31537027364373249</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.32265263026261015</c:v>
+                  <c:v>0.72897746504020278</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.27904865905552467</c:v>
+                  <c:v>0.71317256337158685</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.28451799633639596</c:v>
+                  <c:v>0.89102091386019067</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.69253798748973827</c:v>
+                  <c:v>1.6886464569061177E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.95824366226208846</c:v>
+                  <c:v>0.40462335941694605</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.27682144803720499</c:v>
+                  <c:v>0.93284506656763633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$100</c:f>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0369555626635598</c:v>
+                  <c:v>0.96022648858591797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0681030242617211</c:v>
+                  <c:v>1.0173827611766617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21265235804659002</c:v>
+                  <c:v>0.4560338024825385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59547968790621086</c:v>
+                  <c:v>0.96968725262512157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11504278079691094</c:v>
+                  <c:v>0.37526294922373216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77287819911352851</c:v>
+                  <c:v>0.9442269897416985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56869341969719678</c:v>
+                  <c:v>0.99574889652666898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99255839728152773</c:v>
+                  <c:v>0.53848570760790881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56860665965660706</c:v>
+                  <c:v>0.73239440512310039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75331970604231269</c:v>
+                  <c:v>1.0550506537461</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61413040896011939</c:v>
+                  <c:v>0.56313142380196057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54835705081583419</c:v>
+                  <c:v>0.39296821540504989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2087014005597434E-2</c:v>
+                  <c:v>0.51249248904550981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81114401820146298</c:v>
+                  <c:v>0.67345895120399035</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88561116445339449</c:v>
+                  <c:v>9.6290800288093836E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33714305941692524</c:v>
+                  <c:v>1.0908510216439316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90525441601551526</c:v>
+                  <c:v>0.7637482678697336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5260736195726754</c:v>
+                  <c:v>0.36197241323102042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61911446031306749</c:v>
+                  <c:v>0.91837260491824657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0311115623763476</c:v>
+                  <c:v>0.805089815947723</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0075080348827947</c:v>
+                  <c:v>0.90976150556971314</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83080271139086126</c:v>
+                  <c:v>1.0136136574080472</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43135791678920443</c:v>
+                  <c:v>1.0146711256661511</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98581482386115671</c:v>
+                  <c:v>0.93489621590514893</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97343067863980515</c:v>
+                  <c:v>0.85210967691589778</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5182805116510566</c:v>
+                  <c:v>0.19301276792801</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0504170407562263</c:v>
+                  <c:v>0.6040048483559064</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9982322698936863</c:v>
+                  <c:v>1.0205540112539446</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.049552121612926</c:v>
+                  <c:v>0.8411170760924398</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92297393735108246</c:v>
+                  <c:v>0.93250201586864667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0315728387645711</c:v>
+                  <c:v>1.076634085615662</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.22183676599619739</c:v>
+                  <c:v>0.85033516367676365</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.50240709595601163</c:v>
+                  <c:v>0.54351331554108784</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.98431710621096624</c:v>
+                  <c:v>0.72480127343363188</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0134611256710095</c:v>
+                  <c:v>0.65912308513297913</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.10348440572074274</c:v>
+                  <c:v>0.69757609028737755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0587231503103001</c:v>
+                  <c:v>0.64973516405142662</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4919384094847894</c:v>
+                  <c:v>0.96537367717898304</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.87531519654377221</c:v>
+                  <c:v>0.85147910466966559</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90216849633462748</c:v>
+                  <c:v>0.24822599564636244</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7931704541643172</c:v>
+                  <c:v>1.0224273446033063</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.23428788751909968</c:v>
+                  <c:v>0.61159476694857373</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.84770986318859542</c:v>
+                  <c:v>0.84974185133819347</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.81642159084370458</c:v>
+                  <c:v>0.64330853790180642</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0205600418166894</c:v>
+                  <c:v>1.0047154919808206</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.65179659125349432</c:v>
+                  <c:v>1.0571566222159678</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.41014301041765738</c:v>
+                  <c:v>0.59773331983911049</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0334782487832395</c:v>
+                  <c:v>0.81526332271785684</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.96122163795013338</c:v>
+                  <c:v>1.0291756062130446</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99259615636737897</c:v>
+                  <c:v>0.90059689963661027</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.82306983441496984</c:v>
+                  <c:v>0.74496767506621642</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0451993580964087</c:v>
+                  <c:v>0.76853738775551361</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.86379003691024547</c:v>
+                  <c:v>0.35443744056654541</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.49903898361984222</c:v>
+                  <c:v>0.23840820331615448</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.68869943112279564</c:v>
+                  <c:v>0.83203158265981803</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.52086676810796284</c:v>
+                  <c:v>0.46068977628858626</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0736842244450084</c:v>
+                  <c:v>1.0646116946897315</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.30711589530260114</c:v>
+                  <c:v>1.0148976492394508</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.80134338444105568</c:v>
+                  <c:v>0.67984323245649736</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.51246276800641632</c:v>
+                  <c:v>0.97003382977315544</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22182393335035711</c:v>
+                  <c:v>0.99647702410141736</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.95241293298070839</c:v>
+                  <c:v>0.71264114866004602</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.11981578163401058</c:v>
+                  <c:v>0.99357486225111147</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0684868669111867</c:v>
+                  <c:v>0.95143866235607777</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.78241379902098496</c:v>
+                  <c:v>0.45900152407891304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.82874793879201569</c:v>
+                  <c:v>0.96920719872145944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.97787397886183158</c:v>
+                  <c:v>0.78137453029175541</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.40070254517891002</c:v>
+                  <c:v>0.3518262217784231</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.18510026380453201</c:v>
+                  <c:v>0.98251209046057575</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.64234645704077242</c:v>
+                  <c:v>0.81028594998368009</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.37656978369185867</c:v>
+                  <c:v>1.0765327442160806</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.78957791906326069</c:v>
+                  <c:v>0.6882199226731408</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.8269833573849622</c:v>
+                  <c:v>0.45480422529178716</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99374338448760491</c:v>
+                  <c:v>0.86498411342064985</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.56802081313429165</c:v>
+                  <c:v>0.80916545526919736</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.81051138043180559</c:v>
+                  <c:v>0.98647423906335052</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0522287577649774</c:v>
+                  <c:v>0.7192812851264756</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.20799087763425947</c:v>
+                  <c:v>0.57500229160743355</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.87085983293277835</c:v>
+                  <c:v>0.25706529744495282</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9222819482282788</c:v>
+                  <c:v>0.54056619065592582</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.10570576110719743</c:v>
+                  <c:v>0.75383621357907193</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74502894203054881</c:v>
+                  <c:v>0.84750278832123749</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0020152404105491</c:v>
+                  <c:v>1.0329336469033072</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.81105882283574215</c:v>
+                  <c:v>0.72254350038004889</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5612651505361218</c:v>
+                  <c:v>0.72140808646086219</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.75178163824865574</c:v>
+                  <c:v>0.39224093529779752</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.968379873695369E-2</c:v>
+                  <c:v>1.0259363007435141</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.55572063363769075</c:v>
+                  <c:v>0.42257769619704477</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.76947243116363784</c:v>
+                  <c:v>0.8895496966387777</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.77566021903558846</c:v>
+                  <c:v>1.0511563774349444</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0009032085201479</c:v>
+                  <c:v>0.39884336155350403</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.60215117864276457</c:v>
+                  <c:v>0.25662303163944983</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.67274894452963652</c:v>
+                  <c:v>0.92127253481656979</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.42888190676328886</c:v>
+                  <c:v>1.0194876099526584</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0003387436465079</c:v>
+                  <c:v>0.48594820530326932</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.65018914334442446</c:v>
+                  <c:v>1.0124569392145024</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.47892513631505967</c:v>
+                  <c:v>0.54187908244499772</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.41382057766707503</c:v>
+                  <c:v>0.61782772880418202</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.24156702742888647</c:v>
+                  <c:v>0.75888641936983259</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.82626162155741634</c:v>
+                  <c:v>0.95725840127758044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,6 +846,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -801,618 +881,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$100</c:f>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.58959413181744225</c:v>
+                  <c:v>0.61318123354830767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56733397989424472</c:v>
+                  <c:v>0.59578234001360342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95673559686883003</c:v>
+                  <c:v>0.88029955252446646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81359841962139501</c:v>
+                  <c:v>0.38123392744733431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3518734317485293E-2</c:v>
+                  <c:v>0.88570192056244246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27373180475181735</c:v>
+                  <c:v>0.36116307126325198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83941922157855209</c:v>
+                  <c:v>0.46295160378872358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43521488361741645</c:v>
+                  <c:v>0.84979925765197828</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18452928149974468</c:v>
+                  <c:v>0.78079325832274427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73653275697090714</c:v>
+                  <c:v>0.48797643696759818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20789392836684395</c:v>
+                  <c:v>0.16836009997972945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17316052497903323</c:v>
+                  <c:v>0.10194141961795955</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98725434444764004</c:v>
+                  <c:v>0.15146261757808166</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29541482923237994</c:v>
+                  <c:v>0.23093769940737519</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31097359401191038</c:v>
+                  <c:v>1.8930249290119217E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10244060633508711</c:v>
+                  <c:v>0.50279389258389862</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64121555564080235</c:v>
+                  <c:v>0.73184828506831467</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.84262195066431189</c:v>
+                  <c:v>9.575831463055462E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81914178112381819</c:v>
+                  <c:v>0.3357845897369317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.58446013792874996</c:v>
+                  <c:v>0.73184062230073987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.62399369542969696</c:v>
+                  <c:v>0.68212479595541142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2700371058689498</c:v>
+                  <c:v>0.62077617664107987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88186070383430371</c:v>
+                  <c:v>0.63191378346299498</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.62358297197209134</c:v>
+                  <c:v>0.64889003559571223</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.41773341568200595</c:v>
+                  <c:v>0.70163539102622297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.14718054804140968</c:v>
+                  <c:v>0.94266462607259094</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5092481887856849</c:v>
+                  <c:v>0.79851192685086458</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.40754813272412216</c:v>
+                  <c:v>0.5988428467185235</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.57245791687109715</c:v>
+                  <c:v>0.71997281330319629</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.36797650373124902</c:v>
+                  <c:v>0.31828141247705677</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.59979036864889512</c:v>
+                  <c:v>0.49761284314791354</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95818358659354275</c:v>
+                  <c:v>0.28690309729769758</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.85158040441089289</c:v>
+                  <c:v>0.16900643460855469</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.3868995071764324</c:v>
+                  <c:v>0.23931536630131878</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44799319382330938</c:v>
+                  <c:v>0.18977683938561885</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97670515293358284</c:v>
+                  <c:v>0.21274619940325501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4360332354069133</c:v>
+                  <c:v>0.79718779882035118</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14591751758140747</c:v>
+                  <c:v>0.360557306386738</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.28792834399405742</c:v>
+                  <c:v>0.69392968362902485</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.69296232409345937</c:v>
+                  <c:v>0.93252535222978528</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.74534821137814111</c:v>
+                  <c:v>0.62171854427510809</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.414027849307367E-2</c:v>
+                  <c:v>0.18043706656352021</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.28946416605081615</c:v>
+                  <c:v>0.29621561585376277</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.74129255259810123</c:v>
+                  <c:v>0.80269434534066508</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.40169104609107908</c:v>
+                  <c:v>0.3998754727343391</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.79020676583374994</c:v>
+                  <c:v>0.46261184349550422</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.12090852368403582</c:v>
+                  <c:v>0.80569191637021131</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.4850855107731411</c:v>
+                  <c:v>0.72640980098886498</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.65163378706028718</c:v>
+                  <c:v>0.3985772446298137</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.43944837675523563</c:v>
+                  <c:v>0.67087216876684841</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26761417775465068</c:v>
+                  <c:v>0.25914964923540262</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5153056738317684</c:v>
+                  <c:v>0.25560356664418582</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.29594346277519012</c:v>
+                  <c:v>9.7385733587467826E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.14249432381235405</c:v>
+                  <c:v>0.93445432454077759</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.20789621147951476</c:v>
+                  <c:v>0.29401195447479345</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.16482274213349368</c:v>
+                  <c:v>0.85664199282446696</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.42807905416559766</c:v>
+                  <c:v>0.43226395001322793</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.90181981834681824</c:v>
+                  <c:v>0.61142505998897623</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.26270941416281213</c:v>
+                  <c:v>0.77067615045669391</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.13916075435887942</c:v>
+                  <c:v>0.36326994323156392</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.94014388120728032</c:v>
+                  <c:v>0.4431189283135889</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.38422144870845698</c:v>
+                  <c:v>0.76782602579988279</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.7603483389532881E-2</c:v>
+                  <c:v>0.40183103690419109</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.45565876037616126</c:v>
+                  <c:v>0.61818632342262603</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.26092819552359314</c:v>
+                  <c:v>0.85856020809151978</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.30496357525414541</c:v>
+                  <c:v>0.34564606745075488</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.57147754856698274</c:v>
+                  <c:v>0.26498950885135331</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.11764681709671054</c:v>
+                  <c:v>0.89119089002233953</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.94983662194749796</c:v>
+                  <c:v>0.64599649392545433</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.20625292735821388</c:v>
+                  <c:v>0.73169553936390086</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.89626965597815234</c:v>
+                  <c:v>0.56733604669676108</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.71458368214569778</c:v>
+                  <c:v>0.22254247531637794</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.69744247924932989</c:v>
+                  <c:v>0.13219817036583248</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.45562916040012857</c:v>
+                  <c:v>0.69296804147793445</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.18067621633951503</c:v>
+                  <c:v>0.29996033704688041</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.2736536455393962</c:v>
+                  <c:v>0.639507712548957</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.49705310805906999</c:v>
+                  <c:v>0.76724152984470972</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.94863161030261267</c:v>
+                  <c:v>0.82083476384985599</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28931881251454483</c:v>
+                  <c:v>5.7394317262190575E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.66121481912887525</c:v>
+                  <c:v>0.83483294776547223</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3984070231236823E-2</c:v>
+                  <c:v>0.74373652466163709</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74109683181858788</c:v>
+                  <c:v>0.31165408363010849</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.60099033938624979</c:v>
+                  <c:v>0.53255081377183355</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.72949302892149526</c:v>
+                  <c:v>0.78133523962734952</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.18965923161394616</c:v>
+                  <c:v>0.78067866020375098</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.7561388590945588</c:v>
+                  <c:v>0.88493804732565107</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.99366733718183309</c:v>
+                  <c:v>0.50228325334061485</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.81386474040697177</c:v>
+                  <c:v>0.88365586337300028</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.23619755163543332</c:v>
+                  <c:v>0.6901418833314249</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.27219416240607208</c:v>
+                  <c:v>0.51468773341640772</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.37547461678398164</c:v>
+                  <c:v>0.90036213252675823</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.82796991086723715</c:v>
+                  <c:v>6.8293861288271085E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.78315855814188418</c:v>
+                  <c:v>0.65943859047055042</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.14094329800799188</c:v>
+                  <c:v>0.54946354052766477</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.41935021854012866</c:v>
+                  <c:v>0.13553669139805358</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.21379520595354828</c:v>
+                  <c:v>0.60975644137656015</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.85125524002422759</c:v>
+                  <c:v>0.14956662719621006</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.88802581893530275</c:v>
+                  <c:v>0.21130408190132388</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.95344284771272059</c:v>
+                  <c:v>0.74486376301557145</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.29441480934245901</c:v>
+                  <c:v>0.33203190648452496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$100</c:f>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0369555626635598</c:v>
+                  <c:v>0.96022648858591797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0681030242617211</c:v>
+                  <c:v>1.0173827611766617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21265235804659002</c:v>
+                  <c:v>0.4560338024825385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59547968790621086</c:v>
+                  <c:v>0.96968725262512157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11504278079691094</c:v>
+                  <c:v>0.37526294922373216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77287819911352851</c:v>
+                  <c:v>0.9442269897416985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56869341969719678</c:v>
+                  <c:v>0.99574889652666898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99255839728152773</c:v>
+                  <c:v>0.53848570760790881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56860665965660706</c:v>
+                  <c:v>0.73239440512310039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75331970604231269</c:v>
+                  <c:v>1.0550506537461</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61413040896011939</c:v>
+                  <c:v>0.56313142380196057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54835705081583419</c:v>
+                  <c:v>0.39296821540504989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2087014005597434E-2</c:v>
+                  <c:v>0.51249248904550981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81114401820146298</c:v>
+                  <c:v>0.67345895120399035</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88561116445339449</c:v>
+                  <c:v>9.6290800288093836E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33714305941692524</c:v>
+                  <c:v>1.0908510216439316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90525441601551526</c:v>
+                  <c:v>0.7637482678697336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5260736195726754</c:v>
+                  <c:v>0.36197241323102042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61911446031306749</c:v>
+                  <c:v>0.91837260491824657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0311115623763476</c:v>
+                  <c:v>0.805089815947723</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0075080348827947</c:v>
+                  <c:v>0.90976150556971314</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83080271139086126</c:v>
+                  <c:v>1.0136136574080472</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43135791678920443</c:v>
+                  <c:v>1.0146711256661511</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98581482386115671</c:v>
+                  <c:v>0.93489621590514893</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97343067863980515</c:v>
+                  <c:v>0.85210967691589778</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5182805116510566</c:v>
+                  <c:v>0.19301276792801</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0504170407562263</c:v>
+                  <c:v>0.6040048483559064</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9982322698936863</c:v>
+                  <c:v>1.0205540112539446</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.049552121612926</c:v>
+                  <c:v>0.8411170760924398</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92297393735108246</c:v>
+                  <c:v>0.93250201586864667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0315728387645711</c:v>
+                  <c:v>1.076634085615662</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.22183676599619739</c:v>
+                  <c:v>0.85033516367676365</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.50240709595601163</c:v>
+                  <c:v>0.54351331554108784</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.98431710621096624</c:v>
+                  <c:v>0.72480127343363188</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0134611256710095</c:v>
+                  <c:v>0.65912308513297913</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.10348440572074274</c:v>
+                  <c:v>0.69757609028737755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0587231503103001</c:v>
+                  <c:v>0.64973516405142662</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4919384094847894</c:v>
+                  <c:v>0.96537367717898304</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.87531519654377221</c:v>
+                  <c:v>0.85147910466966559</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90216849633462748</c:v>
+                  <c:v>0.24822599564636244</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7931704541643172</c:v>
+                  <c:v>1.0224273446033063</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.23428788751909968</c:v>
+                  <c:v>0.61159476694857373</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.84770986318859542</c:v>
+                  <c:v>0.84974185133819347</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.81642159084370458</c:v>
+                  <c:v>0.64330853790180642</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0205600418166894</c:v>
+                  <c:v>1.0047154919808206</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.65179659125349432</c:v>
+                  <c:v>1.0571566222159678</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.41014301041765738</c:v>
+                  <c:v>0.59773331983911049</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0334782487832395</c:v>
+                  <c:v>0.81526332271785684</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.96122163795013338</c:v>
+                  <c:v>1.0291756062130446</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99259615636737897</c:v>
+                  <c:v>0.90059689963661027</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.82306983441496984</c:v>
+                  <c:v>0.74496767506621642</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0451993580964087</c:v>
+                  <c:v>0.76853738775551361</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.86379003691024547</c:v>
+                  <c:v>0.35443744056654541</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.49903898361984222</c:v>
+                  <c:v>0.23840820331615448</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.68869943112279564</c:v>
+                  <c:v>0.83203158265981803</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.52086676810796284</c:v>
+                  <c:v>0.46068977628858626</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0736842244450084</c:v>
+                  <c:v>1.0646116946897315</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.30711589530260114</c:v>
+                  <c:v>1.0148976492394508</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.80134338444105568</c:v>
+                  <c:v>0.67984323245649736</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.51246276800641632</c:v>
+                  <c:v>0.97003382977315544</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22182393335035711</c:v>
+                  <c:v>0.99647702410141736</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.95241293298070839</c:v>
+                  <c:v>0.71264114866004602</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.11981578163401058</c:v>
+                  <c:v>0.99357486225111147</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0684868669111867</c:v>
+                  <c:v>0.95143866235607777</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.78241379902098496</c:v>
+                  <c:v>0.45900152407891304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.82874793879201569</c:v>
+                  <c:v>0.96920719872145944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.97787397886183158</c:v>
+                  <c:v>0.78137453029175541</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.40070254517891002</c:v>
+                  <c:v>0.3518262217784231</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.18510026380453201</c:v>
+                  <c:v>0.98251209046057575</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.64234645704077242</c:v>
+                  <c:v>0.81028594998368009</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.37656978369185867</c:v>
+                  <c:v>1.0765327442160806</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.78957791906326069</c:v>
+                  <c:v>0.6882199226731408</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.8269833573849622</c:v>
+                  <c:v>0.45480422529178716</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99374338448760491</c:v>
+                  <c:v>0.86498411342064985</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.56802081313429165</c:v>
+                  <c:v>0.80916545526919736</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.81051138043180559</c:v>
+                  <c:v>0.98647423906335052</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0522287577649774</c:v>
+                  <c:v>0.7192812851264756</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.20799087763425947</c:v>
+                  <c:v>0.57500229160743355</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.87085983293277835</c:v>
+                  <c:v>0.25706529744495282</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9222819482282788</c:v>
+                  <c:v>0.54056619065592582</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.10570576110719743</c:v>
+                  <c:v>0.75383621357907193</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74502894203054881</c:v>
+                  <c:v>0.84750278832123749</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0020152404105491</c:v>
+                  <c:v>1.0329336469033072</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.81105882283574215</c:v>
+                  <c:v>0.72254350038004889</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5612651505361218</c:v>
+                  <c:v>0.72140808646086219</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.75178163824865574</c:v>
+                  <c:v>0.39224093529779752</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.968379873695369E-2</c:v>
+                  <c:v>1.0259363007435141</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.55572063363769075</c:v>
+                  <c:v>0.42257769619704477</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.76947243116363784</c:v>
+                  <c:v>0.8895496966387777</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.77566021903558846</c:v>
+                  <c:v>1.0511563774349444</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0009032085201479</c:v>
+                  <c:v>0.39884336155350403</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.60215117864276457</c:v>
+                  <c:v>0.25662303163944983</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.67274894452963652</c:v>
+                  <c:v>0.92127253481656979</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.42888190676328886</c:v>
+                  <c:v>1.0194876099526584</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0003387436465079</c:v>
+                  <c:v>0.48594820530326932</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.65018914334442446</c:v>
+                  <c:v>1.0124569392145024</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.47892513631505967</c:v>
+                  <c:v>0.54187908244499772</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.41382057766707503</c:v>
+                  <c:v>0.61782772880418202</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.24156702742888647</c:v>
+                  <c:v>0.75888641936983259</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.82626162155741634</c:v>
+                  <c:v>0.95725840127758044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,6 +1519,7 @@
         <c:axId val="440049256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1635,7 +1716,1001 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>x2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs x1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.22778045981715989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62315322943470408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88784399303929717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38490722413030709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23851756174769201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37850227575941164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5146822970929406E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83933384310682413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96892584587085795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5576397387615859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58531198925578187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78156368654302211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54412667165640327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9402291815251176E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36854718392916486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90889541652167261</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17489768271145212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65655923875706967</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48522493494597241</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58815292026396104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69029138843260041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84737581088594671</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9932085649441883</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42312021738722583</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46123230112073266</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13860816041687551</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.12443943351141318</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68380410947494585</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70549394045648273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91079365974893878</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76662206542222544</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66180553427197641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.37161076219290379</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41823644718848163</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97619694808454405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77874916372231029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54825448235877439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59802544915724321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31400562007223276</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.37832098787545376</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9465189194646304</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74609143349405882</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47770043201084311</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62392213727001933</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53779940218212019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.64046927835370626</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24507852761820059</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.57741224521713774</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.79509804352069935</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.41252874901795133</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17830383952739315</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49092819386283837</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53241769613359702</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.33942534870774477</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.34214500007635928</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25388889869025277</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.87168105870780621</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.75542819751397394</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.20126235826698236</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.60880639359154476</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12400918929757754</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.46221682062650227</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.40756510110745225</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19579768284502719</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.29133852490759737</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.84493641526801988</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.41765617477442785</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.16610773097875853</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.85866176899224067</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.63708111322933814</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.9882452750058156</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.44661917479815583</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.51328065482641638</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.43180495281547027</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2170806318188019E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.80989772925036319</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.5149387835493292</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.41391576482782055</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77731168568379572</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44651723907153928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.32953276345063842</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.17512551970915069</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.38157788646993707</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.88357242028160066</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85628335431133495</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38584032680630198</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.25962026970138619</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.65155888295335274</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.62719747357493949</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.52220771034079994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90908558136764361</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.43713805623330082</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.44117539564357044</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.31537027364373249</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.72897746504020278</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.71317256337158685</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.89102091386019067</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6886464569061177E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.40462335941694605</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.93284506656763633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.61318123354830767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59578234001360342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88029955252446646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38123392744733431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88570192056244246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36116307126325198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46295160378872358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84979925765197828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78079325832274427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48797643696759818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16836009997972945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10194141961795955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15146261757808166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23093769940737519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8930249290119217E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50279389258389862</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73184828506831467</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.575831463055462E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3357845897369317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73184062230073987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68212479595541142</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.62077617664107987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63191378346299498</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64889003559571223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70163539102622297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94266462607259094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79851192685086458</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5988428467185235</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71997281330319629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.31828141247705677</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49761284314791354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.28690309729769758</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16900643460855469</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23931536630131878</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18977683938561885</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.21274619940325501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.79718779882035118</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.360557306386738</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69392968362902485</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93252535222978528</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62171854427510809</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18043706656352021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.29621561585376277</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80269434534066508</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3998754727343391</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46261184349550422</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80569191637021131</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.72640980098886498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3985772446298137</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.67087216876684841</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.25914964923540262</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25560356664418582</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.7385733587467826E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93445432454077759</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.29401195447479345</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.85664199282446696</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43226395001322793</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.61142505998897623</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.77067615045669391</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.36326994323156392</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.4431189283135889</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.76782602579988279</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.40183103690419109</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61818632342262603</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85856020809151978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.34564606745075488</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.26498950885135331</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.89119089002233953</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.64599649392545433</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.73169553936390086</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.56733604669676108</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.22254247531637794</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.13219817036583248</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.69296804147793445</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.29996033704688041</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.639507712548957</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76724152984470972</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.82083476384985599</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7394317262190575E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83483294776547223</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.74373652466163709</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.31165408363010849</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53255081377183355</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.78133523962734952</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.78067866020375098</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.88493804732565107</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.50228325334061485</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88365586337300028</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.6901418833314249</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.51468773341640772</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90036213252675823</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8293861288271085E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.65943859047055042</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.54946354052766477</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.13553669139805358</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.60975644137656015</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.14956662719621006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.21130408190132388</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.74486376301557145</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.33203190648452496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BC6-7744-ABC1-174580BC3A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="440049256"/>
+        <c:axId val="440052208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="440049256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440052208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="440052208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440049256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2191,19 +3266,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2224,6 +3815,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A70730-BE52-134F-9DCB-00822C5AFA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2529,1412 +4158,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694CE0C3-10FB-46DD-B4C5-9D98FAF203A4}">
-  <dimension ref="C1:E100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E100"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.76306923823149087</v>
-      </c>
-      <c r="D1">
+        <v>0.22778045981715989</v>
+      </c>
+      <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.58959413181744225</v>
-      </c>
-      <c r="E1">
-        <f ca="1">C1/10+SIN(D1*PI())</f>
-        <v>1.0369555626635598</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+        <v>0.61318123354830767</v>
+      </c>
       <c r="C2">
-        <f t="shared" ref="C2:D65" ca="1" si="0">RAND()</f>
-        <v>0.90393444232506159</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56733397989424472</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E65" ca="1" si="1">C2/10+SIN(D2*PI())</f>
-        <v>1.0681030242617211</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+        <f ca="1">A2/10+SIN(B2*PI())</f>
+        <v>0.96022648858591797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:B66" ca="1" si="0">RAND()</f>
+        <v>0.62315322943470408</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59578234001360342</v>
+      </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7715133584861813</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95673559686883003</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21265235804659002</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C66" ca="1" si="1">A3/10+SIN(B3*PI())</f>
+        <v>1.0173827611766617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88784399303929717</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88029955252446646</v>
+      </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4278198157485994</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81359841962139501</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.59547968790621086</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4560338024825385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38490722413030709</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38123392744733431</v>
+      </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72585190745499839</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3518734317485293E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11504278079691094</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96968725262512157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23851756174769201</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88570192056244246</v>
+      </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15065762111218628</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27373180475181735</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77287819911352851</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37526294922373216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37850227575941164</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36116307126325198</v>
+      </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85341666176503461</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83941922157855209</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56869341969719678</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9442269897416985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5146822970929406E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46295160378872358</v>
+      </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1319891280292651</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43521488361741645</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.99255839728152773</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.99574889652666898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83933384310682413</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84979925765197828</v>
+      </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20820438286577758</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18452928149974468</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56860665965660706</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53848570760790881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96892584587085795</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78079325832274427</v>
+      </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16937929308395283</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73653275697090714</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75331970604231269</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73239440512310039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5576397387615859</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48797643696759818</v>
+      </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4647295024736207E-2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20789392836684395</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61413040896011939</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0550506537461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58531198925578187</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16836009997972945</v>
+      </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30794489419432647</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17316052497903323</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54835705081583419</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56313142380196057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78156368654302211</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10194141961795955</v>
+      </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5205605532702885</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98725434444764004</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.2087014005597434E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39296821540504989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54412667165640327</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15146261757808166</v>
+      </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10677556696299073</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29541482923237994</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.81114401820146298</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51249248904550981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9402291815251176E-2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23093769940737519</v>
+      </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56815253290906509</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31097359401191038</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88561116445339449</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67345895120399035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36854718392916486</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8930249290119217E-2</v>
+      </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20843097719182779</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10244060633508711</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33714305941692524</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.6290800288093836E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90889541652167261</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50279389258389862</v>
+      </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0599149036590991E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64121555564080235</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.90525441601551526</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0908510216439316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17489768271145212</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73184828506831467</v>
+      </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51554433788207044</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84262195066431189</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5260736195726754</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7637482678697336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65655923875706967</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.575831463055462E-2</v>
+      </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81013160549861662</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81914178112381819</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61911446031306749</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36197241323102042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48522493494597241</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3357845897369317</v>
+      </c>
       <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66107995668040342</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58446013792874996</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0311115623763476</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91837260491824657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58815292026396104</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73184062230073987</v>
+      </c>
       <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82423306176244227</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62399369542969696</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0075080348827947</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.805089815947723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69029138843260041</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68212479595541142</v>
+      </c>
       <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80614556724337905</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2700371058689498</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.83080271139086126</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90976150556971314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84737581088594671</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62077617664107987</v>
+      </c>
       <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68674699458945132</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88186070383430371</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43135791678920443</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0136136574080472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9932085649441883</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63191378346299498</v>
+      </c>
       <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60240850273939417</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62358297197209134</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.98581482386115671</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0146711256661511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42312021738722583</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64889003559571223</v>
+      </c>
       <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6429002956424399E-2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41773341568200595</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.97343067863980515</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93489621590514893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46123230112073266</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70163539102622297</v>
+      </c>
       <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72199870125191012</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14718054804140968</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5182805116510566</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85210967691589778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13860816041687551</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94266462607259094</v>
+      </c>
       <c r="C27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50839079743495241</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5092481887856849</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0504170407562263</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19301276792801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12443943351141318</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79851192685086458</v>
+      </c>
       <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40116055029555564</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40754813272412216</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9982322698936863</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6040048483559064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68380410947494585</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5988428467185235</v>
+      </c>
       <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75348890412071867</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57245791687109715</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.049552121612926</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0205540112539446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70549394045648273</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71997281330319629</v>
+      </c>
       <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7625080463219698E-2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36797650373124902</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.92297393735108246</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8411170760924398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91079365974893878</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31828141247705677</v>
+      </c>
       <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80313017458865554</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59979036864889512</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0315728387645711</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93250201586864667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76662206542222544</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49761284314791354</v>
+      </c>
       <c r="C32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90844169686832865</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95818358659354275</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22183676599619739</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.076634085615662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66180553427197641</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28690309729769758</v>
+      </c>
       <c r="C33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52846009419807072</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85158040441089289</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.50240709595601163</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85033516367676365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37161076219290379</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16900643460855469</v>
+      </c>
       <c r="C34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.46780390522060544</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3868995071764324</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.98431710621096624</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54351331554108784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41823644718848163</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23931536630131878</v>
+      </c>
       <c r="C35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26778659234733149</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44799319382330938</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0134611256710095</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72480127343363188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97619694808454405</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18977683938561885</v>
+      </c>
       <c r="C36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30366792599898529</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97670515293358284</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10348440572074274</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65912308513297913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77874916372231029</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21274619940325501</v>
+      </c>
       <c r="C37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78847251126733509</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4360332354069133</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0587231503103001</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69757609028737755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54825448235877439</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79718779882035118</v>
+      </c>
       <c r="C38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49412536457121059</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14591751758140747</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4919384094847894</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64973516405142662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59802544915724321</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.360557306386738</v>
+      </c>
       <c r="C39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89165873166804632</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28792834399405742</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87531519654377221</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96537367717898304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31400562007223276</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69392968362902485</v>
+      </c>
       <c r="C40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80354644279097098</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69296232409345937</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.90216849633462748</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85147910466966559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37832098787545376</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93252535222978528</v>
+      </c>
       <c r="C41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75805871607330866</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74534821137814111</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7931704541643172</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24822599564636244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9465189194646304</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62171854427510809</v>
+      </c>
       <c r="C42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96061115975243383</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.414027849307367E-2</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23428788751909968</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0224273446033063</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74609143349405882</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18043706656352021</v>
+      </c>
       <c r="C43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58587720444474956</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28946416605081615</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.84770986318859542</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61159476694857373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47770043201084311</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29621561585376277</v>
+      </c>
       <c r="C44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90238688244032605</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74129255259810123</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.81642159084370458</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84974185133819347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62392213727001933</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80269434534066508</v>
+      </c>
       <c r="C45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67875277398095568</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40169104609107908</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0205600418166894</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64330853790180642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53779940218212019</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3998754727343391</v>
+      </c>
       <c r="C46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39402931042611877</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79020676583374994</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.65179659125349432</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0047154919808206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64046927835370626</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46261184349550422</v>
+      </c>
       <c r="C47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39366182220908763</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12090852368403582</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41014301041765738</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0571566222159678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24507852761820059</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80569191637021131</v>
+      </c>
       <c r="C48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34575755187387902</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4850855107731411</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0334782487832395</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59773331983911049</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57741224521713774</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72640980098886498</v>
+      </c>
       <c r="C49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72557034137548015</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65163378706028718</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96122163795013338</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81526332271785684</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79509804352069935</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3985772446298137</v>
+      </c>
       <c r="C50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10635107713957037</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43944837675523563</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.99259615636737897</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0291756062130446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41252874901795133</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67087216876684841</v>
+      </c>
       <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77936507294336266</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26761417775465068</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.82306983441496984</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90059689963661027</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17830383952739315</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25914964923540262</v>
+      </c>
       <c r="C52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.46355180156307152</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5153056738317684</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0451993580964087</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74496767506621642</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49092819386283837</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25560356664418582</v>
+      </c>
       <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62329262730229829</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29594346277519012</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86379003691024547</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76853738775551361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53241769613359702</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7385733587467826E-2</v>
+      </c>
       <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66182477158760389</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14249432381235405</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49903898361984222</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35443744056654541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33942534870774477</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93445432454077759</v>
+      </c>
       <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81028055244580377</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20789621147951476</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68869943112279564</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23840820331615448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34214500007635928</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29401195447479345</v>
+      </c>
       <c r="C56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25891893051457116</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16482274213349368</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52086676810796284</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83203158265981803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25388889869025277</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85664199282446696</v>
+      </c>
       <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9910168272781239</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42807905416559766</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0736842244450084</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46068977628858626</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87168105870780621</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43226395001322793</v>
+      </c>
       <c r="C58">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5412332798180235E-2</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90181981834681824</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30711589530260114</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0646116946897315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75542819751397394</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61142505998897623</v>
+      </c>
       <c r="C59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66574455019377465</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26270941416281213</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.80134338444105568</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0148976492394508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20126235826698236</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77067615045669391</v>
+      </c>
       <c r="C60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89070591575293634</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13916075435887942</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51246276800641632</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67984323245649736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60880639359154476</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36326994323156392</v>
+      </c>
       <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34886647587415398</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94014388120728032</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22182393335035711</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97003382977315544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12400918929757754</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4431189283135889</v>
+      </c>
       <c r="C62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17836260325070197</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38422144870845698</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95241293298070839</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.99647702410141736</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46221682062650227</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76782602579988279</v>
+      </c>
       <c r="C63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64540993173280137</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7603483389532881E-2</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11981578163401058</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71264114866004602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40756510110745225</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40183103690419109</v>
+      </c>
       <c r="C64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78173726473158622</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45565876037616126</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0684868669111867</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.99357486225111147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19579768284502719</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61818632342262603</v>
+      </c>
       <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51452125944451343</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26092819552359314</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78241379902098496</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95143866235607777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29133852490759737</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85856020809151978</v>
+      </c>
       <c r="C66">
-        <f t="shared" ref="C66:D100" ca="1" si="2">RAND()</f>
-        <v>0.10664025560069446</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.30496357525414541</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E100" ca="1" si="3">C66/10+SIN(D66*PI())</f>
-        <v>0.82874793879201569</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45900152407891304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" ref="A67:B101" ca="1" si="2">RAND()</f>
+        <v>0.84493641526801988</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34564606745075488</v>
+      </c>
       <c r="C67">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9803166750750454E-2</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.57147754856698274</v>
-      </c>
-      <c r="E67">
+        <f t="shared" ref="C67:C101" ca="1" si="3">A67/10+SIN(B67*PI())</f>
+        <v>0.96920719872145944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41765617477442785</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26498950885135331</v>
+      </c>
+      <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97787397886183158</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39461587117984509</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.11764681709671054</v>
-      </c>
-      <c r="E68">
+        <v>0.78137453029175541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16610773097875853</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89119089002233953</v>
+      </c>
+      <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40070254517891002</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28158871274919584</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.94983662194749796</v>
-      </c>
-      <c r="E69">
+        <v>0.3518262217784231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85866176899224067</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64599649392545433</v>
+      </c>
+      <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18510026380453201</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.38783182499864521</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20625292735821388</v>
-      </c>
-      <c r="E70">
+        <v>0.98251209046057575</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63708111322933814</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73169553936390086</v>
+      </c>
+      <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64234645704077242</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.56428622562408559</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.89626965597815234</v>
-      </c>
-      <c r="E71">
+        <v>0.81028594998368009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.9882452750058156</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56733604669676108</v>
+      </c>
+      <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37656978369185867</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3304238962942367E-2</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.71458368214569778</v>
-      </c>
-      <c r="E72">
+        <v>1.0765327442160806</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44661917479815583</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22254247531637794</v>
+      </c>
+      <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78957791906326069</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.132698558716562</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.69744247924932989</v>
-      </c>
-      <c r="E73">
+        <v>0.6882199226731408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51328065482641638</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13219817036583248</v>
+      </c>
+      <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8269833573849622</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.4431603290143831E-2</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.45562916040012857</v>
-      </c>
-      <c r="E74">
+        <v>0.45480422529178716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43180495281547027</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69296804147793445</v>
+      </c>
+      <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99374338448760491</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.30401541505332341</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.18067621633951503</v>
-      </c>
-      <c r="E75">
+        <v>0.86498411342064985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2170806318188019E-3</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29996033704688041</v>
+      </c>
+      <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56802081313429165</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.52859177236417632</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2736536455393962</v>
-      </c>
-      <c r="E76">
+        <v>0.80916545526919736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80989772925036319</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.639507712548957</v>
+      </c>
+      <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81051138043180559</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.52271612130536782</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.49705310805906999</v>
-      </c>
-      <c r="E77">
+        <v>0.98647423906335052</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5149387835493292</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76724152984470972</v>
+      </c>
+      <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0522287577649774</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.47311875037728568</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.94863161030261267</v>
-      </c>
-      <c r="E78">
+        <v>0.7192812851264756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41391576482782055</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82083476384985599</v>
+      </c>
+      <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20799087763425947</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.82018258305573599</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28931881251454483</v>
-      </c>
-      <c r="E79">
+        <v>0.57500229160743355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77731168568379572</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7394317262190575E-2</v>
+      </c>
+      <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87085983293277835</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.47820242527850176</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.66121481912887525</v>
-      </c>
-      <c r="E80">
+        <v>0.25706529744495282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44651723907153928</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.83483294776547223</v>
+      </c>
+      <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9222819482282788</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.61787639292256546</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.3984070231236823E-2</v>
-      </c>
-      <c r="E81">
+        <v>0.54056619065592582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32953276345063842</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74373652466163709</v>
+      </c>
+      <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10570576110719743</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.18423449236974099</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.74109683181858788</v>
-      </c>
-      <c r="E82">
+        <v>0.75383621357907193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17512551970915069</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31165408363010849</v>
+      </c>
+      <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74502894203054881</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.51924752536773222</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60099033938624979</v>
-      </c>
-      <c r="E83">
+        <v>0.84750278832123749</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38157788646993707</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53255081377183355</v>
+      </c>
+      <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0020152404105491</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.59895435877300385</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.72949302892149526</v>
-      </c>
-      <c r="E84">
+        <v>1.0329336469033072</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88357242028160066</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78133523962734952</v>
+      </c>
+      <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81105882283574215</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.7530236777080255E-4</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.18965923161394616</v>
-      </c>
-      <c r="E85">
+        <v>0.72254350038004889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85628335431133495</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78067866020375098</v>
+      </c>
+      <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5612651505361218</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.58442625109247426</v>
-      </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.7561388590945588</v>
-      </c>
-      <c r="E86">
+        <v>0.72140808646086219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38584032680630198</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88493804732565107</v>
+      </c>
+      <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75178163824865574</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.7904640972962698E-2</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.99366733718183309</v>
-      </c>
-      <c r="E87">
+        <v>0.39224093529779752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25962026970138619</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50228325334061485</v>
+      </c>
+      <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>2.968379873695369E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.7203874218063149E-2</v>
-      </c>
-      <c r="D88">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.81386474040697177</v>
-      </c>
-      <c r="E88">
+        <v>1.0259363007435141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65155888295335274</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88365586337300028</v>
+      </c>
+      <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55572063363769075</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.93682032752184874</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.23619755163543332</v>
-      </c>
-      <c r="E89">
+        <v>0.42257769619704477</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62719747357493949</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6901418833314249</v>
+      </c>
+      <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76947243116363784</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21008474996723314</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27219416240607208</v>
-      </c>
-      <c r="E90">
+        <v>0.8895496966387777</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52220771034079994</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51468773341640772</v>
+      </c>
+      <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77566021903558846</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.7645410209457506</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.37547461678398164</v>
-      </c>
-      <c r="E91">
+        <v>1.0511563774349444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90908558136764361</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90036213252675823</v>
+      </c>
+      <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0009032085201479</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.87630587052853248</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.82796991086723715</v>
-      </c>
-      <c r="E92">
+        <v>0.39884336155350403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43713805623330082</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8293861288271085E-2</v>
+      </c>
+      <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60215117864276457</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.43001938922287641</v>
-      </c>
-      <c r="D93">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.78315855814188418</v>
-      </c>
-      <c r="E93">
+        <v>0.25662303163944983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44117539564357044</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65943859047055042</v>
+      </c>
+      <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67274894452963652</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.230716857683392E-3</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14094329800799188</v>
-      </c>
-      <c r="E94">
+        <v>0.92127253481656979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31537027364373249</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54946354052766477</v>
+      </c>
+      <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42888190676328886</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32265263026261015</v>
-      </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.41935021854012866</v>
-      </c>
-      <c r="E95">
+        <v>1.0194876099526584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72897746504020278</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13553669139805358</v>
+      </c>
+      <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0003387436465079</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27904865905552467</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21379520595354828</v>
-      </c>
-      <c r="E96">
+        <v>0.48594820530326932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71317256337158685</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60975644137656015</v>
+      </c>
+      <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65018914334442446</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28451799633639596</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.85125524002422759</v>
-      </c>
-      <c r="E97">
+        <v>1.0124569392145024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89102091386019067</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14956662719621006</v>
+      </c>
+      <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47892513631505967</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.69253798748973827</v>
-      </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.88802581893530275</v>
-      </c>
-      <c r="E98">
+        <v>0.54187908244499772</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6886464569061177E-2</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21130408190132388</v>
+      </c>
+      <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41382057766707503</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.95824366226208846</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.95344284771272059</v>
-      </c>
-      <c r="E99">
+        <v>0.61782772880418202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40462335941694605</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74486376301557145</v>
+      </c>
+      <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24156702742888647</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27682144803720499</v>
-      </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.29441480934245901</v>
-      </c>
-      <c r="E100">
+        <v>0.75888641936983259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93284506656763633</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33203190648452496</v>
+      </c>
+      <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82626162155741634</v>
+        <v>0.95725840127758044</v>
       </c>
     </row>
   </sheetData>
